--- a/BalanceSheet/UBER_bal.xlsx
+++ b/BalanceSheet/UBER_bal.xlsx
@@ -706,19 +706,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-99000000.0</v>
+        <v>235000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>240000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>36000000.0</v>
+        <v>253000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-46000000.0</v>
+        <v>215000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>118000000.0</v>
+        <v>272000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>126000000.0</v>
@@ -1253,19 +1253,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>6000000.0</v>
+        <v>818000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>10000000.0</v>
+        <v>787000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>752000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-273000000.0</v>
+        <v>793000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-33000000.0</v>
+        <v>1027000000.0</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
